--- a/public/BibliographyImportFileExample.xlsx
+++ b/public/BibliographyImportFileExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\WebstormProjects\BioRecordHub_Frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B881121-9113-4803-A9D6-0738DC6578B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3299F4A-FE17-4218-BC38-C69A38CF87E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="5880" windowWidth="28800" windowHeight="15345" xr2:uid="{0DF8B199-F3B9-4E18-B1E9-4054CCF2064A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{0DF8B199-F3B9-4E18-B1E9-4054CCF2064A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
   <si>
     <t>book</t>
   </si>
@@ -850,13 +850,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48422239-CA90-4175-982B-7CFC4395E136}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -963,7 +963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -1587,6 +1587,9 @@
       <c r="D21" t="s">
         <v>38</v>
       </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
       <c r="K21">
         <v>1960</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2004,6 +2007,9 @@
       </c>
       <c r="D35" t="s">
         <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
       </c>
       <c r="K35">
         <v>1839</v>
